--- a/data/shared/derived/tables/table-multivariate-analyses.xlsx
+++ b/data/shared/derived/tables/table-multivariate-analyses.xlsx
@@ -29,7 +29,30 @@
     <author>P3g-</author>
   </authors>
   <commentList>
-    <comment ref="M12" authorId="0" shapeId="0">
+    <comment ref="M13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Melanie: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Change reference please and put FALSE as reference</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
   <si>
     <t>Maelstrom</t>
   </si>
@@ -352,9 +375,6 @@
     <t>Perceived health</t>
   </si>
   <si>
-    <t>Poor_health: less than “good”</t>
-  </si>
-  <si>
     <t>Good</t>
   </si>
   <si>
@@ -496,18 +516,12 @@
     <t>TRUE (female)</t>
   </si>
   <si>
-    <t>(0.73-0.90)</t>
-  </si>
-  <si>
     <t>(1.33-1.66)</t>
   </si>
   <si>
     <t>(0.63-0.81)</t>
   </si>
   <si>
-    <t>(1.13-1.40)</t>
-  </si>
-  <si>
     <t>(1.36-1.71)</t>
   </si>
   <si>
@@ -529,18 +543,12 @@
     <t>(.96,.97)</t>
   </si>
   <si>
-    <t>(.81,.98)</t>
-  </si>
-  <si>
     <t>(1.07,1.33)</t>
   </si>
   <si>
     <t>(1.01,1.25)</t>
   </si>
   <si>
-    <t>(1.12,1.38)</t>
-  </si>
-  <si>
     <t>(1.33,1.64)</t>
   </si>
   <si>
@@ -569,6 +577,21 @@
   </si>
   <si>
     <t>(.59,.83)</t>
+  </si>
+  <si>
+    <t>(1.02,1.24)</t>
+  </si>
+  <si>
+    <t>(.72,.89)</t>
+  </si>
+  <si>
+    <t>Good_health: more than “good” or better</t>
+  </si>
+  <si>
+    <t>(1.1,1.36)</t>
+  </si>
+  <si>
+    <t>(.71,.88)</t>
   </si>
 </sst>
 </file>
@@ -1343,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q53"/>
+  <dimension ref="A2:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="8.4" x14ac:dyDescent="0.15"/>
@@ -1362,10 +1385,10 @@
     <col min="18" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="82" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1411,7 @@
       <c r="P3" s="89"/>
       <c r="Q3" s="90"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="91" t="s">
         <v>3</v>
@@ -1417,7 +1440,7 @@
       </c>
       <c r="Q4" s="92"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
@@ -1458,7 +1481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -1480,16 +1503,16 @@
         <v>0.97</v>
       </c>
       <c r="O6" s="76" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P6" s="67">
         <v>0.96</v>
       </c>
       <c r="Q6" s="68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1526,7 +1549,7 @@
       <c r="P7" s="69"/>
       <c r="Q7" s="35"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -1563,7 +1586,7 @@
       <c r="P8" s="69"/>
       <c r="Q8" s="35"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
@@ -1600,7 +1623,7 @@
       <c r="P9" s="69"/>
       <c r="Q9" s="35"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
         <v>21</v>
       </c>
@@ -1637,7 +1660,7 @@
       <c r="P10" s="72"/>
       <c r="Q10" s="71"/>
     </row>
-    <row r="11" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
@@ -1660,7 +1683,7 @@
       <c r="P11" s="74"/>
       <c r="Q11" s="73"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
         <v>28</v>
       </c>
@@ -1691,7 +1714,7 @@
       <c r="K12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="38" t="s">
         <v>128</v>
       </c>
       <c r="N12" s="34" t="s">
@@ -1707,7 +1730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
@@ -1738,23 +1761,23 @@
       <c r="K13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="38" t="s">
-        <v>129</v>
+      <c r="M13" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="N13" s="77">
-        <v>0.89</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="O13" s="78" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P13" s="77">
-        <v>0.81</v>
+        <v>1.22</v>
       </c>
       <c r="Q13" s="78" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
@@ -1777,7 +1800,7 @@
       <c r="P14" s="74"/>
       <c r="Q14" s="73"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
         <v>38</v>
       </c>
@@ -1824,7 +1847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
         <v>40</v>
       </c>
@@ -1862,13 +1885,16 @@
         <v>1.2</v>
       </c>
       <c r="O16" s="80" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P16" s="79">
         <v>1.49</v>
       </c>
       <c r="Q16" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -1961,7 +1987,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="15"/>
       <c r="M19" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N19" s="74"/>
       <c r="O19" s="73"/>
@@ -2053,13 +2079,13 @@
         <v>0.81</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P21" s="81">
         <v>0.85</v>
       </c>
       <c r="Q21" s="80" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -2090,13 +2116,13 @@
         <v>0.61</v>
       </c>
       <c r="O22" s="78" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P22" s="77">
         <v>0.7</v>
       </c>
       <c r="Q22" s="78" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -2160,13 +2186,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="O24" s="80" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P24" s="81">
         <v>0.71</v>
       </c>
       <c r="Q24" s="80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -2230,7 +2256,7 @@
       <c r="J26" s="42"/>
       <c r="K26" s="41"/>
       <c r="M26" s="17" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="N26" s="74"/>
       <c r="O26" s="73"/>
@@ -2239,7 +2265,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>10</v>
@@ -2276,19 +2302,19 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="25">
         <v>1.32</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="25">
         <v>1.34</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="61"/>
       <c r="H28" s="42"/>
@@ -2299,33 +2325,33 @@
         <v>29</v>
       </c>
       <c r="N28" s="79">
-        <v>1.24</v>
+        <v>0.8</v>
       </c>
       <c r="O28" s="80" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P28" s="79">
-        <v>1.26</v>
+        <v>0.79</v>
       </c>
       <c r="Q28" s="80" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="25">
         <v>1.41</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="25">
         <v>1.35</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="61"/>
       <c r="H29" s="42"/>
@@ -2340,21 +2366,21 @@
     </row>
     <row r="30" spans="1:17" ht="16.8" x14ac:dyDescent="0.15">
       <c r="A30" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
       <c r="E30" s="15"/>
       <c r="G30" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="13"/>
       <c r="K30" s="15"/>
       <c r="M30" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N30" s="74"/>
       <c r="O30" s="73"/>
@@ -2363,7 +2389,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>10</v>
@@ -2410,19 +2436,19 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="25">
         <v>1.35</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="25">
         <v>1.37</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>74</v>
@@ -2431,13 +2457,13 @@
         <v>1.45</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" s="25">
         <v>1.45</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M32" s="62" t="s">
         <v>29</v>
@@ -2446,45 +2472,45 @@
         <v>1.48</v>
       </c>
       <c r="O32" s="80" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P32" s="79">
         <v>1.53</v>
       </c>
       <c r="Q32" s="80" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="23">
         <v>1.5</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="25">
         <v>1.51</v>
       </c>
       <c r="E33" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>102</v>
       </c>
       <c r="H33" s="25">
         <v>2.27</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J33" s="25">
         <v>2.02</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="69"/>
@@ -2494,19 +2520,19 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="49">
         <v>1.44</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="63">
         <v>1.6</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="45"/>
@@ -2521,21 +2547,21 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="19"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="G35" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="19"/>
       <c r="J35" s="10"/>
       <c r="K35" s="11"/>
       <c r="M35" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N35" s="74"/>
       <c r="O35" s="73"/>
@@ -2544,23 +2570,23 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>110</v>
-      </c>
       <c r="H36" s="10" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2600,7 @@
         <v>10</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N36" s="34" t="s">
         <v>10</v>
@@ -2591,128 +2617,128 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="25">
         <v>0.81</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="43">
         <v>1</v>
       </c>
       <c r="E37" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="H37" s="25">
         <v>1.66</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J37" s="10">
         <v>0.94</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N37" s="34">
         <v>1.23</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P37" s="34">
         <v>0.93</v>
       </c>
       <c r="Q37" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="65">
         <v>0.98</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="65">
         <v>0.91</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="25">
         <v>3.24</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J38" s="10">
         <v>1.38</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M38" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N38" s="81">
         <v>2.27</v>
       </c>
       <c r="O38" s="80" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P38" s="34">
         <v>1.24</v>
       </c>
       <c r="Q38" s="35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G39" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H39" s="25">
         <v>1.99</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J39" s="43">
         <v>1</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M39" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N39" s="81">
         <v>1.6</v>
       </c>
       <c r="O39" s="80" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P39" s="34">
         <v>1.1399999999999999</v>
       </c>
       <c r="Q39" s="35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -2722,39 +2748,39 @@
       <c r="D40" s="66"/>
       <c r="E40" s="66"/>
       <c r="G40" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H40" s="63">
         <v>2.5299999999999998</v>
       </c>
       <c r="I40" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J40" s="65">
         <v>0.9</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N40" s="77">
         <v>1.77</v>
       </c>
       <c r="O40" s="78" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P40" s="70">
         <v>0.97</v>
       </c>
       <c r="Q40" s="71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M41" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N41" s="74"/>
       <c r="O41" s="73"/>
@@ -2786,13 +2812,13 @@
         <v>1.27</v>
       </c>
       <c r="O43" s="78" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P43" s="77">
         <v>1.45</v>
       </c>
       <c r="Q43" s="78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
